--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiheun\Desktop\TSS_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiheun\Desktop\TSS_project\dongle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D9EB53-7DD2-418E-9932-7BE3D9F370D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B53E93-A7B2-426A-9204-270925F246C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9110" windowHeight="1160" firstSheet="2" activeTab="4" xr2:uid="{BD5300A4-BDD7-4D26-BF1C-3BF1B031F90D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9110" windowHeight="1160" activeTab="4" xr2:uid="{BD5300A4-BDD7-4D26-BF1C-3BF1B031F90D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
-    <sheet name="Group" sheetId="4" r:id="rId2"/>
-    <sheet name="Pictures" sheetId="3" r:id="rId3"/>
+    <sheet name="upload" sheetId="4" r:id="rId2"/>
+    <sheet name="Picture" sheetId="3" r:id="rId3"/>
     <sheet name="Keywords" sheetId="2" r:id="rId4"/>
     <sheet name="UserInfo" sheetId="1" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>PinId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,33 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반송</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pinus densiflora for. multicaulis Uyeki</t>
-  </si>
-  <si>
-    <t>(36.373154, 127.363573)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://terms.naver.com/entry.naver?docId=5782195&amp;cid=62861&amp;categoryId=62861</t>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UploadTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PIN1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PictureId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,69 +87,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Picture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PIN1.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIN1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특별한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>희귀한</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진명소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동물</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +104,816 @@
   </si>
   <si>
     <t>Jiheun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://terms.naver.com/entry.naver?docId=2428094&amp;cid=46694&amp;categoryId=46694 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syringa vulgaris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N006_01_(20160089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김명수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라일락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교양분관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날씨가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맑았는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분홍색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>색깔을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관찰할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라일락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평소에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아했는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생김새를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의미있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관찰이었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>pin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N005_01_(20160089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김명수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라일락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교양분관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new N0005 03 20210916_124359.jpg</t>
+  </si>
+  <si>
+    <t>라일락 꽃이 사라지니 잎이 괜히 더 커 보이네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin1_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new N0005 02 20210916_124409.jpg</t>
+  </si>
+  <si>
+    <t>pin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별목련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnolia stellata</t>
+  </si>
+  <si>
+    <t>https://terms.naver.com/entry.naver?docId=1214083&amp;cid=40942&amp;categoryId=32708</t>
+  </si>
+  <si>
+    <t>pin2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N029_01_20200685하지흔_별목련_진리관옆.jpg</t>
+  </si>
+  <si>
+    <t>pin2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N060_01_별목련(Magnoliastellata),N18우측.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이제 꽃이 막 피기 시작하네요! 다 피면 더 예쁠 것 같아요 :) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일주일 만에 꽃이 활짝 폈네요 :)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin2_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin2_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24C462B4-3A90-4C48-8EAD-82BE9B20FE4B.jpeg</t>
+  </si>
+  <si>
+    <t>꽃이 없으니 목련인지 알아볼수가 없네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin2_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin2_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8FD604D-8420-451D-B5D4-2E5B6B00EE9F.jpeg</t>
+  </si>
+  <si>
+    <t>pin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미가 마치 꽃다발처럼 피었네요^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N033_01_N2근처장미20210606_071347.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin3_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin3_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N034_01_N2근처장미20210606_071402.jpg</t>
+  </si>
+  <si>
+    <t>https://terms.naver.com/entry.naver?docId=769534&amp;cid=46694&amp;categoryId=46694</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(36.3739047 127.3605267)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(36.3748103 127.3594976)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(36.373555 127.364035)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +921,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,13 +946,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="times"/>
     </font>
     <font>
@@ -236,6 +953,36 @@
       <color theme="1"/>
       <name val="times"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF16191F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,12 +1002,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,18 +1020,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,10 +1363,291 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD4F442-0130-4D2E-B5FE-9330C6CFF9F2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="6" max="7" width="13.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>36.373904699999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4D32DCED-B8FB-41E5-82D1-69F19D2349FE}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{2547F507-7F38-4DB0-AF0D-67D58E27B2C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217A7C51-6F4D-4F94-BF46-2165C1F35885}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="7" width="13.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7">
+        <v>44295</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44455</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44276</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44283</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7">
+        <v>44455</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44353</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCBEBC1-D492-42A5-ABF2-A254A2365336}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -607,115 +1657,222 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44295</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7">
+        <v>44295</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44455</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44455</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11">
+        <v>44283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44455</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7">
+        <v>44353</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44353</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217A7C51-6F4D-4F94-BF46-2165C1F35885}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2096097-E5AF-4483-A7D4-3B4D3FE7E8D9}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="7" width="13.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCBEBC1-D492-42A5-ABF2-A254A2365336}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -725,83 +1882,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2096097-E5AF-4483-A7D4-3B4D3FE7E8D9}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="7" width="13.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
@@ -816,12 +1909,8 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -832,10 +1921,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FB0A49-33AA-459E-9304-7A96D493E28E}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -848,25 +1937,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>